--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Cx3cr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Cx3cr1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H2">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I2">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J2">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1099036666666667</v>
+        <v>0.1609883333333333</v>
       </c>
       <c r="N2">
-        <v>0.329711</v>
+        <v>0.482965</v>
       </c>
       <c r="O2">
-        <v>0.002120792448280506</v>
+        <v>0.001254474167385548</v>
       </c>
       <c r="P2">
-        <v>0.002120792448280506</v>
+        <v>0.001254474167385548</v>
       </c>
       <c r="Q2">
-        <v>1.377672941616889</v>
+        <v>1.646097444265555</v>
       </c>
       <c r="R2">
-        <v>12.399056474552</v>
+        <v>14.81487699839</v>
       </c>
       <c r="S2">
-        <v>0.0009085564600180833</v>
+        <v>0.0004802451732251161</v>
       </c>
       <c r="T2">
-        <v>0.0009085564600180832</v>
+        <v>0.0004802451732251161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H3">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I3">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J3">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.069106</v>
       </c>
       <c r="O3">
-        <v>0.0004445089273056484</v>
+        <v>0.0001794989115388189</v>
       </c>
       <c r="P3">
-        <v>0.0004445089273056484</v>
+        <v>0.0001794989115388189</v>
       </c>
       <c r="Q3">
-        <v>0.2887542917991111</v>
+        <v>0.2355351008528889</v>
       </c>
       <c r="R3">
-        <v>2.598788626192</v>
+        <v>2.119815907676</v>
       </c>
       <c r="S3">
-        <v>0.0001904295056155532</v>
+        <v>6.871682821921855E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001904295056155532</v>
+        <v>6.871682821921853E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H4">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I4">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J4">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.50001133333333</v>
+        <v>67.49520266666667</v>
       </c>
       <c r="N4">
-        <v>46.500034</v>
+        <v>202.485608</v>
       </c>
       <c r="O4">
-        <v>0.2991010944493412</v>
+        <v>0.5259448707532771</v>
       </c>
       <c r="P4">
-        <v>0.2991010944493412</v>
+        <v>0.5259448707532771</v>
       </c>
       <c r="Q4">
-        <v>194.2969407331431</v>
+        <v>690.1349825129298</v>
       </c>
       <c r="R4">
-        <v>1748.672466598288</v>
+        <v>6211.214842616369</v>
       </c>
       <c r="S4">
-        <v>0.1281361746552603</v>
+        <v>0.2013453063670307</v>
       </c>
       <c r="T4">
-        <v>0.1281361746552602</v>
+        <v>0.2013453063670307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H5">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I5">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J5">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07682566666666667</v>
+        <v>0.04776</v>
       </c>
       <c r="N5">
-        <v>0.230477</v>
+        <v>0.14328</v>
       </c>
       <c r="O5">
-        <v>0.0014824918825952</v>
+        <v>0.0003721616653442824</v>
       </c>
       <c r="P5">
-        <v>0.0014824918825952</v>
+        <v>0.0003721616653442823</v>
       </c>
       <c r="Q5">
-        <v>0.9630310379848889</v>
+        <v>0.4883435483199999</v>
       </c>
       <c r="R5">
-        <v>8.667279341863999</v>
+        <v>4.39509193488</v>
       </c>
       <c r="S5">
-        <v>0.0006351057963962008</v>
+        <v>0.0001424731158980354</v>
       </c>
       <c r="T5">
-        <v>0.0006351057963962008</v>
+        <v>0.0001424731158980353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.53527733333333</v>
+        <v>10.22494866666667</v>
       </c>
       <c r="H6">
-        <v>37.605832</v>
+        <v>30.674846</v>
       </c>
       <c r="I6">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="J6">
-        <v>0.4284042319910757</v>
+        <v>0.382825876937742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.11220533333334</v>
+        <v>60.60433966666667</v>
       </c>
       <c r="N6">
-        <v>108.336616</v>
+        <v>181.813019</v>
       </c>
       <c r="O6">
-        <v>0.6968511122924774</v>
+        <v>0.4722489945024543</v>
       </c>
       <c r="P6">
-        <v>0.6968511122924774</v>
+        <v>0.4722489945024542</v>
       </c>
       <c r="Q6">
-        <v>452.6765089716125</v>
+        <v>619.6762620688971</v>
       </c>
       <c r="R6">
-        <v>4074.088580744512</v>
+        <v>5577.086358620074</v>
       </c>
       <c r="S6">
-        <v>0.2985339655737857</v>
+        <v>0.180789135453369</v>
       </c>
       <c r="T6">
-        <v>0.2985339655737856</v>
+        <v>0.1807891354533689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>46.705157</v>
       </c>
       <c r="I7">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J7">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1099036666666667</v>
+        <v>0.1609883333333333</v>
       </c>
       <c r="N7">
-        <v>0.329711</v>
+        <v>0.482965</v>
       </c>
       <c r="O7">
-        <v>0.002120792448280506</v>
+        <v>0.001254474167385548</v>
       </c>
       <c r="P7">
-        <v>0.002120792448280506</v>
+        <v>0.001254474167385548</v>
       </c>
       <c r="Q7">
-        <v>1.711022668847445</v>
+        <v>2.506328461167222</v>
       </c>
       <c r="R7">
-        <v>15.399204019627</v>
+        <v>22.556956150505</v>
       </c>
       <c r="S7">
-        <v>0.001128396045286508</v>
+        <v>0.000731215609492261</v>
       </c>
       <c r="T7">
-        <v>0.001128396045286508</v>
+        <v>0.000731215609492261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>46.705157</v>
       </c>
       <c r="I8">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J8">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.069106</v>
       </c>
       <c r="O8">
-        <v>0.0004445089273056484</v>
+        <v>0.0001794989115388189</v>
       </c>
       <c r="P8">
-        <v>0.0004445089273056484</v>
+        <v>0.0001794989115388189</v>
       </c>
       <c r="Q8">
         <v>0.3586229532935555</v>
@@ -948,10 +948,10 @@
         <v>3.227606579642</v>
       </c>
       <c r="S8">
-        <v>0.0002365069321483645</v>
+        <v>0.0001046274283013722</v>
       </c>
       <c r="T8">
-        <v>0.0002365069321483645</v>
+        <v>0.0001046274283013721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>46.705157</v>
       </c>
       <c r="I9">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J9">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.50001133333333</v>
+        <v>67.49520266666667</v>
       </c>
       <c r="N9">
-        <v>46.500034</v>
+        <v>202.485608</v>
       </c>
       <c r="O9">
-        <v>0.2991010944493412</v>
+        <v>0.5259448707532771</v>
       </c>
       <c r="P9">
-        <v>0.2991010944493412</v>
+        <v>0.5259448707532771</v>
       </c>
       <c r="Q9">
-        <v>241.3101542750375</v>
+        <v>1050.791345764495</v>
       </c>
       <c r="R9">
-        <v>2171.791388475338</v>
+        <v>9457.122111880457</v>
       </c>
       <c r="S9">
-        <v>0.1591407458995549</v>
+        <v>0.3065659773837257</v>
       </c>
       <c r="T9">
-        <v>0.1591407458995549</v>
+        <v>0.3065659773837257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>46.705157</v>
       </c>
       <c r="I10">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J10">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.07682566666666667</v>
+        <v>0.04776</v>
       </c>
       <c r="N10">
-        <v>0.230477</v>
+        <v>0.14328</v>
       </c>
       <c r="O10">
-        <v>0.0014824918825952</v>
+        <v>0.0003721616653442824</v>
       </c>
       <c r="P10">
-        <v>0.0014824918825952</v>
+        <v>0.0003721616653442823</v>
       </c>
       <c r="Q10">
-        <v>1.196051607765444</v>
+        <v>0.7435460994399999</v>
       </c>
       <c r="R10">
-        <v>10.764464469889</v>
+        <v>6.691914894959999</v>
       </c>
       <c r="S10">
-        <v>0.0007887796747136081</v>
+        <v>0.0002169278778546089</v>
       </c>
       <c r="T10">
-        <v>0.0007887796747136081</v>
+        <v>0.0002169278778546088</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>46.705157</v>
       </c>
       <c r="I11">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="J11">
-        <v>0.5320634021501669</v>
+        <v>0.5828861434557787</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.11220533333334</v>
+        <v>60.60433966666667</v>
       </c>
       <c r="N11">
-        <v>108.336616</v>
+        <v>181.813019</v>
       </c>
       <c r="O11">
-        <v>0.6968511122924774</v>
+        <v>0.4722489945024543</v>
       </c>
       <c r="P11">
-        <v>0.6968511122924774</v>
+        <v>0.4722489945024542</v>
       </c>
       <c r="Q11">
-        <v>562.2087399031902</v>
+        <v>943.5117330043314</v>
       </c>
       <c r="R11">
-        <v>5059.878659128713</v>
+        <v>8491.605597038983</v>
       </c>
       <c r="S11">
-        <v>0.3707689735984635</v>
+        <v>0.2752673951564049</v>
       </c>
       <c r="T11">
-        <v>0.3707689735984635</v>
+        <v>0.2752673951564048</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H12">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I12">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J12">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1099036666666667</v>
+        <v>0.1609883333333333</v>
       </c>
       <c r="N12">
-        <v>0.329711</v>
+        <v>0.482965</v>
       </c>
       <c r="O12">
-        <v>0.002120792448280506</v>
+        <v>0.001254474167385548</v>
       </c>
       <c r="P12">
-        <v>0.002120792448280506</v>
+        <v>0.001254474167385548</v>
       </c>
       <c r="Q12">
-        <v>0.00473325784688889</v>
+        <v>0.136075871715</v>
       </c>
       <c r="R12">
-        <v>0.04259932062200001</v>
+        <v>1.224682845435</v>
       </c>
       <c r="S12">
-        <v>3.121518804510333E-06</v>
+        <v>3.969982506879244E-05</v>
       </c>
       <c r="T12">
-        <v>3.121518804510332E-06</v>
+        <v>3.969982506879243E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H13">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I13">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J13">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.069106</v>
       </c>
       <c r="O13">
-        <v>0.0004445089273056484</v>
+        <v>0.0001794989115388189</v>
       </c>
       <c r="P13">
-        <v>0.0004445089273056484</v>
+        <v>0.0001794989115388189</v>
       </c>
       <c r="Q13">
-        <v>0.0009920703791111113</v>
+        <v>0.019470684606</v>
       </c>
       <c r="R13">
-        <v>0.008928633412</v>
+        <v>0.175236161454</v>
       </c>
       <c r="S13">
-        <v>6.54256844644222E-07</v>
+        <v>5.680527804714567E-06</v>
       </c>
       <c r="T13">
-        <v>6.542568446442218E-07</v>
+        <v>5.680527804714564E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H14">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I14">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J14">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.50001133333333</v>
+        <v>67.49520266666667</v>
       </c>
       <c r="N14">
-        <v>46.500034</v>
+        <v>202.485608</v>
       </c>
       <c r="O14">
-        <v>0.2991010944493412</v>
+        <v>0.5259448707532771</v>
       </c>
       <c r="P14">
-        <v>0.2991010944493412</v>
+        <v>0.5259448707532771</v>
       </c>
       <c r="Q14">
-        <v>0.6675441547631112</v>
+        <v>57.050522539608</v>
       </c>
       <c r="R14">
-        <v>6.007897392868</v>
+        <v>513.454702856472</v>
       </c>
       <c r="S14">
-        <v>0.0004402362388314913</v>
+        <v>0.01664435977047628</v>
       </c>
       <c r="T14">
-        <v>0.0004402362388314911</v>
+        <v>0.01664435977047628</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H15">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I15">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J15">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.07682566666666667</v>
+        <v>0.04776</v>
       </c>
       <c r="N15">
-        <v>0.230477</v>
+        <v>0.14328</v>
       </c>
       <c r="O15">
-        <v>0.0014824918825952</v>
+        <v>0.0003721616653442824</v>
       </c>
       <c r="P15">
-        <v>0.0014824918825952</v>
+        <v>0.0003721616653442823</v>
       </c>
       <c r="Q15">
-        <v>0.003308676594888889</v>
+        <v>0.04036928327999999</v>
       </c>
       <c r="R15">
-        <v>0.029778089354</v>
+        <v>0.3633235495199999</v>
       </c>
       <c r="S15">
-        <v>2.182026955446218E-06</v>
+        <v>1.177764628048944E-05</v>
       </c>
       <c r="T15">
-        <v>2.182026955446217E-06</v>
+        <v>1.177764628048943E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04306733333333334</v>
+        <v>0.8452529999999999</v>
       </c>
       <c r="H16">
-        <v>0.129202</v>
+        <v>2.535759</v>
       </c>
       <c r="I16">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="J16">
-        <v>0.001471864352893747</v>
+        <v>0.03164658635540572</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.11220533333334</v>
+        <v>60.60433966666667</v>
       </c>
       <c r="N16">
-        <v>108.336616</v>
+        <v>181.813019</v>
       </c>
       <c r="O16">
-        <v>0.6968511122924774</v>
+        <v>0.4722489945024543</v>
       </c>
       <c r="P16">
-        <v>0.6968511122924774</v>
+        <v>0.4722489945024542</v>
       </c>
       <c r="Q16">
-        <v>1.555256384492445</v>
+        <v>51.225999916269</v>
       </c>
       <c r="R16">
-        <v>13.997307460432</v>
+        <v>461.0339992464209</v>
       </c>
       <c r="S16">
-        <v>0.001025670311457655</v>
+        <v>0.01494506858577544</v>
       </c>
       <c r="T16">
-        <v>0.001025670311457655</v>
+        <v>0.01494506858577544</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H17">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I17">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J17">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1099036666666667</v>
+        <v>0.1609883333333333</v>
       </c>
       <c r="N17">
-        <v>0.329711</v>
+        <v>0.482965</v>
       </c>
       <c r="O17">
-        <v>0.002120792448280506</v>
+        <v>0.001254474167385548</v>
       </c>
       <c r="P17">
-        <v>0.002120792448280506</v>
+        <v>0.001254474167385548</v>
       </c>
       <c r="Q17">
-        <v>0.09115922997111112</v>
+        <v>0.01135761959111111</v>
       </c>
       <c r="R17">
-        <v>0.8204330697400001</v>
+        <v>0.10221857632</v>
       </c>
       <c r="S17">
-        <v>6.011826521273077E-05</v>
+        <v>3.313559599378246E-06</v>
       </c>
       <c r="T17">
-        <v>6.011826521273076E-05</v>
+        <v>3.313559599378246E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H18">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I18">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J18">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.069106</v>
       </c>
       <c r="O18">
-        <v>0.0004445089273056484</v>
+        <v>0.0001794989115388189</v>
       </c>
       <c r="P18">
-        <v>0.0004445089273056484</v>
+        <v>0.0001794989115388189</v>
       </c>
       <c r="Q18">
-        <v>0.01910658044888889</v>
+        <v>0.001625127409777778</v>
       </c>
       <c r="R18">
-        <v>0.17195922404</v>
+        <v>0.014626146688</v>
       </c>
       <c r="S18">
-        <v>1.26005284500395E-05</v>
+        <v>4.741272135136772E-07</v>
       </c>
       <c r="T18">
-        <v>1.260052845003949E-05</v>
+        <v>4.741272135136772E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H19">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I19">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J19">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.50001133333333</v>
+        <v>67.49520266666667</v>
       </c>
       <c r="N19">
-        <v>46.500034</v>
+        <v>202.485608</v>
       </c>
       <c r="O19">
-        <v>0.2991010944493412</v>
+        <v>0.5259448707532771</v>
       </c>
       <c r="P19">
-        <v>0.2991010944493412</v>
+        <v>0.5259448707532771</v>
       </c>
       <c r="Q19">
-        <v>12.85643273372889</v>
+        <v>4.761741551331556</v>
       </c>
       <c r="R19">
-        <v>115.70789460356</v>
+        <v>42.855673961984</v>
       </c>
       <c r="S19">
-        <v>0.008478641526709747</v>
+        <v>0.001389227232044435</v>
       </c>
       <c r="T19">
-        <v>0.008478641526709747</v>
+        <v>0.001389227232044435</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H20">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I20">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J20">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.07682566666666667</v>
+        <v>0.04776</v>
       </c>
       <c r="N20">
-        <v>0.230477</v>
+        <v>0.14328</v>
       </c>
       <c r="O20">
-        <v>0.0014824918825952</v>
+        <v>0.0003721616653442824</v>
       </c>
       <c r="P20">
-        <v>0.0014824918825952</v>
+        <v>0.0003721616653442823</v>
       </c>
       <c r="Q20">
-        <v>0.06372279313111111</v>
+        <v>0.00336943616</v>
       </c>
       <c r="R20">
-        <v>0.5735051381799999</v>
+        <v>0.03032492544</v>
       </c>
       <c r="S20">
-        <v>4.202431041558986E-05</v>
+        <v>9.830253111486655E-07</v>
       </c>
       <c r="T20">
-        <v>4.202431041558986E-05</v>
+        <v>9.830253111486653E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8294466666666667</v>
+        <v>0.07054933333333334</v>
       </c>
       <c r="H21">
-        <v>2.48834</v>
+        <v>0.211648</v>
       </c>
       <c r="I21">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="J21">
-        <v>0.02834707623627828</v>
+        <v>0.002641393251073509</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>36.11220533333334</v>
+        <v>60.60433966666667</v>
       </c>
       <c r="N21">
-        <v>108.336616</v>
+        <v>181.813019</v>
       </c>
       <c r="O21">
-        <v>0.6968511122924774</v>
+        <v>0.4722489945024543</v>
       </c>
       <c r="P21">
-        <v>0.6968511122924774</v>
+        <v>0.4722489945024542</v>
       </c>
       <c r="Q21">
-        <v>29.95314833971556</v>
+        <v>4.275595760590223</v>
       </c>
       <c r="R21">
-        <v>269.57833505744</v>
+        <v>38.480361845312</v>
       </c>
       <c r="S21">
-        <v>0.01975369160549018</v>
+        <v>0.001247395306905034</v>
       </c>
       <c r="T21">
-        <v>0.01975369160549018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.852656</v>
-      </c>
-      <c r="I22">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J22">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.1099036666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.329711</v>
-      </c>
-      <c r="O22">
-        <v>0.002120792448280506</v>
-      </c>
-      <c r="P22">
-        <v>0.002120792448280506</v>
-      </c>
-      <c r="Q22">
-        <v>0.03123667360177778</v>
-      </c>
-      <c r="R22">
-        <v>0.281130062416</v>
-      </c>
-      <c r="S22">
-        <v>2.060015895867372E-05</v>
-      </c>
-      <c r="T22">
-        <v>2.060015895867372E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.852656</v>
-      </c>
-      <c r="I23">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J23">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.02303533333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.069106</v>
-      </c>
-      <c r="O23">
-        <v>0.0004445089273056484</v>
-      </c>
-      <c r="P23">
-        <v>0.0004445089273056484</v>
-      </c>
-      <c r="Q23">
-        <v>0.006547071726222223</v>
-      </c>
-      <c r="R23">
-        <v>0.058923645536</v>
-      </c>
-      <c r="S23">
-        <v>4.317704247046977E-06</v>
-      </c>
-      <c r="T23">
-        <v>4.317704247046977E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.852656</v>
-      </c>
-      <c r="I24">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J24">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>15.50001133333333</v>
-      </c>
-      <c r="N24">
-        <v>46.500034</v>
-      </c>
-      <c r="O24">
-        <v>0.2991010944493412</v>
-      </c>
-      <c r="P24">
-        <v>0.2991010944493412</v>
-      </c>
-      <c r="Q24">
-        <v>4.405392554478222</v>
-      </c>
-      <c r="R24">
-        <v>39.648532990304</v>
-      </c>
-      <c r="S24">
-        <v>0.002905296128984876</v>
-      </c>
-      <c r="T24">
-        <v>0.002905296128984876</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.852656</v>
-      </c>
-      <c r="I25">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J25">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.07682566666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.230477</v>
-      </c>
-      <c r="O25">
-        <v>0.0014824918825952</v>
-      </c>
-      <c r="P25">
-        <v>0.0014824918825952</v>
-      </c>
-      <c r="Q25">
-        <v>0.02183528854577778</v>
-      </c>
-      <c r="R25">
-        <v>0.196517596912</v>
-      </c>
-      <c r="S25">
-        <v>1.440007411435543E-05</v>
-      </c>
-      <c r="T25">
-        <v>1.440007411435543E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2842186666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.852656</v>
-      </c>
-      <c r="I26">
-        <v>0.009713425269585385</v>
-      </c>
-      <c r="J26">
-        <v>0.009713425269585383</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>36.11220533333334</v>
-      </c>
-      <c r="N26">
-        <v>108.336616</v>
-      </c>
-      <c r="O26">
-        <v>0.6968511122924774</v>
-      </c>
-      <c r="P26">
-        <v>0.6968511122924774</v>
-      </c>
-      <c r="Q26">
-        <v>10.26376285023289</v>
-      </c>
-      <c r="R26">
-        <v>92.373865652096</v>
-      </c>
-      <c r="S26">
-        <v>0.006768811203280433</v>
-      </c>
-      <c r="T26">
-        <v>0.006768811203280431</v>
+        <v>0.001247395306905033</v>
       </c>
     </row>
   </sheetData>
